--- a/data/dataframe/10050.xlsx
+++ b/data/dataframe/10050.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/DataFiles/idis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898F6DE-C4DA-7741-AB56-9DB30F32AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7252880-2B37-8E4F-AD17-97D04A859AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="3360" windowWidth="30720" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>MARATHON</t>
   </si>
   <si>
-    <t>F2d/F2p</t>
-  </si>
-  <si>
     <t>d/p</t>
   </si>
   <si>
@@ -85,13 +79,19 @@
   </si>
   <si>
     <t>syst_u</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,6 +124,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -481,7 +487,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M8"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,48 +503,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.19500000000000001</v>
@@ -554,13 +560,13 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I2">
         <v>5.0000000000000001E-3</v>
@@ -583,7 +589,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.22500000000000001</v>
@@ -599,13 +605,13 @@
         <v>0.84850000000000003</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I3">
         <v>5.0000000000000001E-3</v>
@@ -628,7 +634,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.255</v>
@@ -644,13 +650,13 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I4">
         <v>7.0000000000000001E-3</v>
@@ -673,7 +679,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0.28499999999999998</v>
@@ -689,13 +695,13 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I5">
         <v>8.0000000000000002E-3</v>
@@ -718,7 +724,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.315</v>
@@ -734,13 +740,13 @@
         <v>0.8145</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I6">
         <v>8.0000000000000002E-3</v>
@@ -763,7 +769,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.34499999999999997</v>
@@ -779,13 +785,13 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I7">
         <v>8.9999999999999993E-3</v>
@@ -808,7 +814,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.375</v>
@@ -824,13 +830,13 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="I8">
         <v>1.2999999999999999E-2</v>
@@ -856,6 +862,7 @@
       <c r="H9" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/dataframe/10050.xlsx
+++ b/data/dataframe/10050.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7252880-2B37-8E4F-AD17-97D04A859AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC72D2-EE19-944F-9772-5B18065297AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="3360" windowWidth="30720" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="M2" sqref="M2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,8 +583,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M2">
-        <f>E2*0.08</f>
-        <v>6.9000000000000006E-2</v>
+        <f>E2*0.008</f>
+        <v>6.9000000000000008E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -628,8 +628,8 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="3">E3*0.08</f>
-        <v>6.788000000000001E-2</v>
+        <f t="shared" ref="M3:M8" si="3">E3*0.008</f>
+        <v>6.7880000000000006E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>6.6960000000000006E-2</v>
+        <v>6.6959999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>6.6239999999999993E-2</v>
+        <v>6.6239999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>6.5159999999999996E-2</v>
+        <v>6.5160000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>6.3520000000000007E-2</v>
+        <v>6.3520000000000009E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -854,7 +854,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>6.1760000000000002E-2</v>
+        <v>6.1760000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
